--- a/data/trans_bre/P48_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P48_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -625,37 +641,47 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,43</t>
+          <t>-5,23</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-5,6</t>
+          <t>-5,7</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,54%</t>
+          <t>-3,14</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>-2,55%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-13,57%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-13,46%</t>
+          <t>-13,05%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-13,56%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-6,81%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 4,5</t>
+          <t>-6,45; 4,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 7,13</t>
+          <t>-6,35; 7,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,73; 0,36</t>
+          <t>-10,63; -0,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,14; 0,03</t>
+          <t>-11,4; -0,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,84; 12,89</t>
+          <t>-9,19; 3,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,68; 21,57</t>
+          <t>-15,37; 13,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-25,02; 1,07</t>
+          <t>-15,42; 23,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-24,9; 0,11</t>
+          <t>-24,76; -1,12</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-24,86; -1,56</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-18,62; 9,66</t>
         </is>
       </c>
     </row>
@@ -725,37 +761,47 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-4,57</t>
+          <t>-5,55</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-6,0</t>
+          <t>-6,16</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-4,09</t>
+          <t>-4,7</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-6,49%</t>
+          <t>-2,23</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-16,81%</t>
+          <t>-6,47%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-19,47%</t>
+          <t>-19,46%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-14,72%</t>
+          <t>-19,92%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-16,6%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-7,07%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 3,13</t>
+          <t>-7,04; 3,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,9; 1,96</t>
+          <t>-12,4; 0,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,14; -0,21</t>
+          <t>-12,44; -0,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 1,33</t>
+          <t>-10,34; 0,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-26,91; 13,81</t>
+          <t>-8,33; 3,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-38,06; 8,5</t>
+          <t>-25,88; 14,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-35,49; -0,58</t>
+          <t>-38,04; 4,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-30,75; 5,2</t>
+          <t>-36,12; 0,32</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-32,82; 2,59</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-23,82; 13,26</t>
         </is>
       </c>
     </row>
@@ -825,7 +881,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,58</t>
+          <t>-5,06</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -835,27 +891,37 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,18</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-12,19%</t>
+          <t>3,02</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-21,99%</t>
+          <t>-12,18%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>26,53%</t>
+          <t>-22,86%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>18,12%</t>
+          <t>25,64%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>17,67%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>13,95%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,73; 5,79</t>
+          <t>-11,4; 6,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,31; 7,76</t>
+          <t>-18,29; 6,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 11,62</t>
+          <t>-4,6; 12,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 12,28</t>
+          <t>-5,09; 12,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-46,47; 39,36</t>
+          <t>-8,21; 14,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-57,87; 63,97</t>
+          <t>-45,38; 49,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-25,51; 111,43</t>
+          <t>-60,25; 44,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-23,25; 99,71</t>
+          <t>-23,19; 112,38</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-22,95; 95,69</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-30,65; 98,17</t>
         </is>
       </c>
     </row>
@@ -925,37 +1001,47 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,98</t>
+          <t>-2,1</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-4,09</t>
+          <t>-4,06</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-3,44</t>
+          <t>-3,74</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>-1,6</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>-3,43%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-6,27%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-12,31%</t>
+          <t>-6,47%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-10,39%</t>
+          <t>-12,18%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-11,14%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-4,3%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 2,65</t>
+          <t>-4,49; 2,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 2,16</t>
+          <t>-6,81; 2,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,21; -0,65</t>
+          <t>-7,81; -0,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 0,37</t>
+          <t>-7,5; -0,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-14,65; 9,46</t>
+          <t>-6,02; 2,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-18,82; 7,6</t>
+          <t>-13,81; 8,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-22,84; -1,83</t>
+          <t>-19,64; 7,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-21,81; 1,24</t>
+          <t>-22,44; -1,24</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-21,03; -0,82</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-14,87; 8,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,9 +1114,9 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P48_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P48_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,96</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,92</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-5,23</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-5,7</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-3,14</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-2,55%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>2,42%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-13,05%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-13,56%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-6,81%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.9610836662226063</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.3141473898597702</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-5.168847833875328</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-5.67109211612587</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-2.818211634329837</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.02549322720662385</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.008329245227960429</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.1305618586336513</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.1364734529552172</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.06170919821847057</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-6,45; 4,58</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-6,35; 7,45</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-10,63; -0,33</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-11,4; -0,59</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-9,19; 3,96</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-15,37; 13,18</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-15,42; 23,0</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-24,76; -1,12</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-24,86; -1,56</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-18,62; 9,66</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-6.449813210870293</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-6.880004841655377</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-10.66826959245951</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-11.0242327927668</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-9.27973491871062</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.1537200979781125</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.1575738012322212</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.2475707303360533</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.2468196284753737</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.1849593500041941</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>4.584330282338996</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>7.12310863938102</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-0.2676333836461729</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>-0.4410269683487825</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>3.843146918372135</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.1317861424928686</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.2160995123005126</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>-0.007263963271235073</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>-0.01239851015897699</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.09447401374172958</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-1,59</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-5,55</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-6,16</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-4,7</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-2,23</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-6,47%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-19,46%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-19,92%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-16,6%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-7,07%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-7,04; 3,33</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-12,4; 0,95</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-12,44; -0,04</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-10,34; 0,72</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-8,33; 3,85</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-25,88; 14,9</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-38,04; 4,72</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-36,12; 0,32</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-32,82; 2,59</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-23,82; 13,26</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-1.590411020116961</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-6.260181699441714</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-6.1156685325257</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-4.271241483012036</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-1.937639883829484</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.06473588868634689</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.2192757753755187</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.1997384994178509</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.1543651179064589</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.06182629389793814</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-2,42</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-5,06</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,94</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>3,16</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>3,02</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-12,18%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-22,86%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>25,64%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>17,67%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>13,95%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-7.044973255576288</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-13.61691489447428</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-12.67042919500867</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-10.02785494826863</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-8.198000961658057</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.2587838275595198</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.4036077623807241</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.3670709629671843</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.3164686463943614</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.2354755823235628</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-11,4; 6,79</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-18,29; 6,16</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-4,6; 12,65</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-5,09; 12,28</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-8,21; 14,41</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-45,38; 49,91</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-60,25; 44,8</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-23,19; 112,38</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-22,95; 95,69</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-30,65; 98,17</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>3.331850916941098</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.7651573753818234</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.05673256057735881</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.9401267524034704</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>3.928376240751806</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.1490470965889938</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.03145756860915867</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>-0.005360353123829837</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.04435474352089464</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.1421013243704059</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,117 +879,233 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-1,04</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-2,1</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-4,06</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-3,74</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-1,6</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-3,43%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-6,47%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-12,18%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-11,14%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-4,3%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-2.423583796557</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-6.316348444624584</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>3.278423694867566</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>2.718114595311258</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>2.31185280287951</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.1218489337790706</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.2781175713289383</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.2121970929527935</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.1517621242632506</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.10534274073206</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-4,49; 2,54</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-6,81; 2,39</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-7,81; -0,4</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-7,5; -0,25</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-6,02; 2,93</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-13,81; 8,99</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-19,64; 7,91</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-22,44; -1,24</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-21,03; -0,82</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-14,87; 8,74</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-11.40006602429606</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-20.57371904574055</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-5.354398923137563</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-5.43921813993389</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-9.10486211908932</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.4537988688851418</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.6378698848444991</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.2551843592907989</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.2668358922157101</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.3324850303454652</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>6.787401742899152</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>5.949256110270877</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>11.88764276180613</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>11.64358232550377</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>13.7264228531887</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.4990514644056651</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.3945725587730402</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.089166403733367</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.9308535480983916</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.9122092794783131</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-1.036228168228853</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-2.793856861914557</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-4.108670048757684</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-3.62960535227751</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-1.414468362712884</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.03431616152232833</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.08610416169507421</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.1243568598894889</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.1096251500937836</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.03826910083156868</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-4.489019880885152</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-7.442977176589745</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-8.034569164580381</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-7.443476294029594</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-5.64559821231197</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.1381407166566415</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.2126407577735544</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.2306112473444727</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.2111402682808476</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.1426688483290924</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>2.543081487821175</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.625065726209642</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-0.4232829767326159</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>-0.09209478438511023</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>3.153215525902558</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.08986688253827872</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.05466942145290931</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>-0.01327247810684012</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>-0.003308159637911932</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.09108630371080174</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1112,13 +1113,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
